--- a/biology/Botanique/Maclura_tricuspidata/Maclura_tricuspidata.xlsx
+++ b/biology/Botanique/Maclura_tricuspidata/Maclura_tricuspidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maclura tricuspidata est une espèce d'arbre de la famille des Moraceae, originaire d'Asie de l'Est, parfois cultivé pour ses fruits similaires à ceux des mûriers (Morus spp.).
 L'arbre a été introduit en Angleterre et dans d'autres parties de l'Europe autour de 1872, et aux États-Unis vers 1930.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est également connue sous les noms latins de Cudrania tricuspidata (Carrière) Bureau ex Lavallée et de Cudrania triloba (Hance.) et les noms communs de cudrang ou cudrane, Che ou zhe (en chinois : 柘; pinyin: Zhe), mûrier chinois (mais à ne pas confondre avec Morus australis également connu par ce nom).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jeune arbre et fruits
@@ -584,15 +600,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cudrane préfère un sol fertile, frais, sablonneux ou limoneux et bien drainé[1]. Il supporte également aussi bien un sol pauvre, acide, neutre ou basique. Il exige une exposition lumineuse mais supporte bien le vent.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cudrane préfère un sol fertile, frais, sablonneux ou limoneux et bien drainé. Il supporte également aussi bien un sol pauvre, acide, neutre ou basique. Il exige une exposition lumineuse mais supporte bien le vent.
 La propagation se fait par bouture ou semis de graines fraîches. Quand ils sont assez grands pour les manipuler, piquez les plants dans des pots individuels et placez-les en serre pour au moins leur premier hiver. Les premiers fruits apparaissent vers l'âge de 10 ans.
 L'espèce présente une forte tendance au drageonnement. Si l'on souhaite que ce fruitier ne drageonne pas, il faut le greffer (en fente ou greffe anglaise compliquée) sur Maclura pomifera. Cette greffe rendrait en outre la fructification plus précoce et plus importante.
 Les arbres adultes peuvent produire jusqu'à 200 kilos de fruits.
-Cultivars
-'Female' : le fruit est gros et savoureux, maturation de la fin de l'été à l'automne[2]. Un petit arbre épineux qui porte une lourde récolte chaque année.
-'Male' : un petit arbre épineux qui est utilisé principalement comme pollinisateur pour les autres arbres même s'il produit quelques fruits de temps en temps.
 </t>
         </is>
       </c>
@@ -618,12 +633,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Female' : le fruit est gros et savoureux, maturation de la fin de l'été à l'automne. Un petit arbre épineux qui porte une lourde récolte chaque année.
+'Male' : un petit arbre épineux qui est utilisé principalement comme pollinisateur pour les autres arbres même s'il produit quelques fruits de temps en temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maclura_tricuspidata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maclura_tricuspidata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une infusion de bois est utilisée pour traiter l'angine ou certains problèmes ophtalmologiques[3]. L'écorce interne et le bois sont utilisés dans le traitement du paludisme et la ménorragie[4]. La racine est galactogène et est également utilisé dans le traitement de l'aménorrhée.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une infusion de bois est utilisée pour traiter l'angine ou certains problèmes ophtalmologiques. L'écorce interne et le bois sont utilisés dans le traitement du paludisme et la ménorragie. La racine est galactogène et est également utilisé dans le traitement de l'aménorrhée.
 Un colorant jaune est obtenu à partir du bois.
 L'écorce est utilisée pour la fabrication du papier.
 Le bois, finement grainé, est utilisé pour la fabrication d'outils.
@@ -631,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Maclura_tricuspidata</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maclura_tricuspidata</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le temple Tanzhe à l'ouest de Pékin porte le nom de cet arbre.
 </t>
